--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2008 (G08).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2008 (G08).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,168 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Demonic Tutor</t>
+          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{B}</t>
+          <t>('Goblin Piledriver', ['{1}{R}', 'Creature — Goblin Warrior', 'Protection from blue (This creature can’t be blocked, targeted, dealt damage, or enchanted by anything blue.)', 'Whenever Goblin Piledriver attacks, it gets +2/+0 until end of turn for each other attacking Goblin.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Living Wish', ['{1}{G}', 'Sorcery', 'You may reveal a creature or land card you own from outside the game and put it into your hand. Exile Living Wish.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Search your library for a card, put that card into your hand, then shuffle your library.</t>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Goblin Piledriver</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Protection from blue (This creature can’t be blocked, targeted, dealt damage, or enchanted by anything blue.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Whenever Goblin Piledriver attacks, it gets +2/+0 until end of turn for each other attacking Goblin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Living Wish</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>You may reveal a creature or land card you own from outside the game and put it into your hand. Exile Living Wish.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mind's Desire</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{4}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Storm (When you cast this spell, copy it for each spell cast before it this turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Orim's Chant</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Kicker {W} (You may pay an additional {W} as you cast this spell.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Target player can’t cast spells this turn. If this spell was kicked, creatures can’t attack this turn.</t>
+          <t>("Orim's Chant", ['{W}', 'Instant', 'Kicker {W} (You may pay an additional {W} as you cast this spell.)', 'Target player can’t cast spells this turn. If this spell was kicked, creatures can’t attack this turn.'])</t>
         </is>
       </c>
     </row>
